--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_LSPMW_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_LSPMW_General.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.3857922855296778</v>
+        <v>0.5415580391554872</v>
       </c>
       <c r="D2">
-        <v>0.6996667951662308</v>
+        <v>0.5916544251648128</v>
       </c>
       <c r="E2">
         <v>0.8560472911691407</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.9730952470176332</v>
+        <v>1.185175080187879</v>
       </c>
       <c r="D3">
-        <v>0.3305526746874952</v>
+        <v>0.2441661456511059</v>
       </c>
       <c r="E3">
         <v>0.8560472911691407</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.08583821178310543</v>
+        <v>-0.08005982729591334</v>
       </c>
       <c r="D4">
-        <v>0.9315984402642992</v>
+        <v>0.9366590635718302</v>
       </c>
       <c r="E4">
         <v>0.8560472911691407</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.366371060458303</v>
+        <v>-1.224273436643161</v>
       </c>
       <c r="D5">
-        <v>0.171883494865164</v>
+        <v>0.2292648197711251</v>
       </c>
       <c r="E5">
         <v>0.8560472911691407</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.5343858918528029</v>
+        <v>0.6113794900705095</v>
       </c>
       <c r="D6">
-        <v>0.5930981533727908</v>
+        <v>0.5450148000051098</v>
       </c>
       <c r="E6">
         <v>0.8480552277532712</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.3936189324738874</v>
+        <v>-0.4625421506586854</v>
       </c>
       <c r="D7">
-        <v>0.693879055092256</v>
+        <v>0.6466392353969383</v>
       </c>
       <c r="E7">
         <v>0.8480552277532712</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.519949483085074</v>
+        <v>-1.975695895920662</v>
       </c>
       <c r="D8">
-        <v>0.1285864126274168</v>
+        <v>0.05635058087269962</v>
       </c>
       <c r="E8">
         <v>0.8480552277532712</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.9187388839724784</v>
+        <v>-0.8304602642932233</v>
       </c>
       <c r="D9">
-        <v>0.3582761403687005</v>
+        <v>0.412072297270528</v>
       </c>
       <c r="E9">
         <v>0.8363530010460065</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-2.14454359574367</v>
+        <v>-2.315261378112026</v>
       </c>
       <c r="D10">
-        <v>0.03203704177312638</v>
+        <v>0.02676574212528093</v>
       </c>
       <c r="E10">
         <v>0.8363530010460065</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.067687426046816</v>
+        <v>-1.114348540160877</v>
       </c>
       <c r="D11">
-        <v>0.2857126796553244</v>
+        <v>0.2729452061442326</v>
       </c>
       <c r="E11">
         <v>0.8579223599615018</v>
